--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H2">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I2">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J2">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>0.9911642957173927</v>
       </c>
       <c r="Q2">
-        <v>441.960859202408</v>
+        <v>179.983350602076</v>
       </c>
       <c r="R2">
-        <v>3977.647732821672</v>
+        <v>1619.850155418684</v>
       </c>
       <c r="S2">
-        <v>0.6608417057030128</v>
+        <v>0.4449836184688483</v>
       </c>
       <c r="T2">
-        <v>0.6608417057030129</v>
+        <v>0.4449836184688483</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H3">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I3">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J3">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>0.008835704282607262</v>
       </c>
       <c r="Q3">
-        <v>3.939846777443778</v>
+        <v>1.604456161893667</v>
       </c>
       <c r="R3">
-        <v>35.458620996994</v>
+        <v>14.440105457043</v>
       </c>
       <c r="S3">
-        <v>0.005891053495807572</v>
+        <v>0.003966793073946968</v>
       </c>
       <c r="T3">
-        <v>0.005891053495807574</v>
+        <v>0.003966793073946969</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H4">
         <v>189.421768</v>
       </c>
       <c r="I4">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J4">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -694,10 +694,10 @@
         <v>1232.451518253984</v>
       </c>
       <c r="S4">
-        <v>0.2047580424980144</v>
+        <v>0.3385626345409294</v>
       </c>
       <c r="T4">
-        <v>0.2047580424980144</v>
+        <v>0.3385626345409294</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
         <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,10 +756,10 @@
         <v>10.986651965768</v>
       </c>
       <c r="S5">
-        <v>0.001825309407143769</v>
+        <v>0.003018106415726889</v>
       </c>
       <c r="T5">
-        <v>0.001825309407143769</v>
+        <v>0.00301810641572689</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>116.159826</v>
       </c>
       <c r="I6">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J6">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,16 +812,16 @@
         <v>0.9911642957173927</v>
       </c>
       <c r="Q6">
-        <v>83.97565532983199</v>
+        <v>83.97565532983201</v>
       </c>
       <c r="R6">
-        <v>755.7808979684879</v>
+        <v>755.780897968488</v>
       </c>
       <c r="S6">
-        <v>0.1255645475163655</v>
+        <v>0.2076180427076151</v>
       </c>
       <c r="T6">
-        <v>0.1255645475163655</v>
+        <v>0.2076180427076151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>116.159826</v>
       </c>
       <c r="I7">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J7">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -874,16 +874,16 @@
         <v>0.008835704282607262</v>
       </c>
       <c r="Q7">
-        <v>0.7485984519806665</v>
+        <v>0.7485984519806667</v>
       </c>
       <c r="R7">
         <v>6.737386067826</v>
       </c>
       <c r="S7">
-        <v>0.001119341379655919</v>
+        <v>0.001850804792933403</v>
       </c>
       <c r="T7">
-        <v>0.001119341379655919</v>
+        <v>0.001850804792933404</v>
       </c>
     </row>
   </sheetData>
